--- a/save.xlsx
+++ b/save.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ResUNet</t>
+          <t>ACM</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,69 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ResUNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ALCNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AGPCNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ISTDU-Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RDIAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ISTDU_Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UIUNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,61 +450,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ResUNet</t>
+          <t>RDIAN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALCNet</t>
+          <t>ISTDU_Net</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AGPCNet</t>
+          <t>res_UNet</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ISTDU-Net</t>
+          <t>DNANet</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
-        <is>
-          <t>RDIAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ISTDU_Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DNANet</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
         <is>
           <t>UIUNet</t>
         </is>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,42 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACM</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RDIAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ISTDU_Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DNANet</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UIUNet</t>
+          <t>SDecNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SDecNet</t>
+          <t>DATransNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DATransNet</t>
+          <t>DTUM_res_UNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="save" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="save" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DTUM_res_UNet</t>
+          <t>RFR_res_UNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RFR_res_UNet</t>
+          <t>DTUM_SDecNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RFR_SDecNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DTUM_SDecNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RFR_SDecNet</t>
+          <t>RFR_res_UNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RFR_res_UNet</t>
+          <t>DTUM_res_UNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>RFR_res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>DTUM_res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,13 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SDecNet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,26 +443,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RFR_res_UNet</t>
+          <t>res_UNet</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DTUM_res_UNet</t>
+          <t>RFR_res_UNet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>res_UNet</t>
+          <t>DTUM_res_UNet</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>SDecNet</t>
         </is>

--- a/save.xlsx
+++ b/save.xlsx
@@ -443,35 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>res_UNet</t>
+          <t>RFR_res_UNet</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RFR_res_UNet</t>
+          <t>DTUM_res_UNet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DTUM_res_UNet</t>
+          <t>SDecNet</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>res_UNet</t>
+          <t>ISTDU_Net</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SDecNet</t>
+          <t>DATransNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RFR_res_UNet</t>
+          <t>DTUM_res_UNet</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DTUM_res_UNet</t>
+          <t>RFR_res_UNet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SDecNet</t>
+          <t>DTUM_DATrasnNet</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ISTDU_Net</t>
+          <t>RFR_DATrasnNet</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DATransNet</t>
+          <t>RFR_ISTDU_Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DTUM_ISTDU_Net</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,40 +443,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DTUM_res_UNet</t>
+          <t>RFR_DATransNet</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RFR_res_UNet</t>
+          <t>RFR_ISTDU_Net</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
-        <is>
-          <t>DTUM_DATrasnNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RFR_DATrasnNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>RFR_ISTDU_Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
         <is>
           <t>DTUM_ISTDU_Net</t>
         </is>

--- a/save.xlsx
+++ b/save.xlsx
@@ -443,21 +443,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RFR_DATransNet</t>
+          <t>SDecNet</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RFR_ISTDU_Net</t>
+          <t>RFR_SDecNet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DTUM_ISTDU_Net</t>
+          <t>DTUM_SDecNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,21 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SDecNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RFR_SDecNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DTUM_SDecNet</t>
+          <t>STDecNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STDecNet</t>
+          <t>res_UNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>res_UNet</t>
+          <t>STDecNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>model</t>
         </is>
@@ -443,7 +431,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>STDecNet</t>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ISTDU_Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DATransNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,21 +431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ISTDU_Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DATransNet</t>
+          <t>SDecNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -431,7 +431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SDecNet</t>
+          <t>RFR_res_UNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,6 +424,11 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>model</t>
         </is>
       </c>
@@ -431,7 +436,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RFR_res_UNet</t>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSHNet </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSHNet </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SDecNet
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ISTDU_Net</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSHNet </t>
+          <t>MSHNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IRDST</t>
+          <t>NUDT-MIRSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/save.xlsx
+++ b/save.xlsx
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NUDT-MIRSDT</t>
+          <t>IRDST</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MSHNet </t>
+          <t>MSHNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MSHNet</t>
+          <t>DNANet</t>
         </is>
       </c>
     </row>
@@ -453,66 +453,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DNANet</t>
+          <t>res_UNet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NUDT-MIRSDT</t>
+          <t>IRDST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MSHNet</t>
+          <t xml:space="preserve">SDecNet
+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NUDT-MIRSDT</t>
+          <t>IRDST</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>DNANet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>IRDST</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>IRDST</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SDecNet
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>IRDST</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>ISTDU_Net</t>
         </is>

--- a/save.xlsx
+++ b/save.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,8 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">SDecNet
-</t>
+          <t>ISTDU-Net</t>
         </is>
       </c>
     </row>
@@ -478,7 +477,79 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISTDU_Net</t>
+          <t>L2SKNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>IRDST</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MSHNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DNANet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>res_UNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ISTDU-Net</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>L2SKNet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MSHNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DNANet</t>
+          <t>RFR+ISTDU-Net</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>res_UNet</t>
+          <t>RFR+L2SKNet</t>
         </is>
       </c>
     </row>
@@ -465,91 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ISTDU-Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>IRDST</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L2SKNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>IRDST</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MSHNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>DNANet</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>res_UNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ISTDU-Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>L2SKNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>NUDT-MIRSDT</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MSHNet</t>
+          <t>RFR+MSHNet</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,31 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RFR+ISTDU-Net</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>IRDST</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RFR+L2SKNet</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>IRDST</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RFR+MSHNet</t>
+          <t>DQAligner</t>
         </is>
       </c>
     </row>

--- a/save.xlsx
+++ b/save.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>NUDT-MIRSDT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DQAligner</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>IRDST</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>DQAligner</t>
         </is>
